--- a/Software/AMZN.xlsx
+++ b/Software/AMZN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8C283C-E40E-A44E-862E-AEC58F207270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B5EF08-F8DA-AA41-9CE9-FB4F4F6B59DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -2018,13 +2018,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>207.55</v>
-    <v>138.36000000000001</v>
-    <v>1.1499999999999999</v>
-    <v>7.59</v>
-    <v>3.8045000000000002E-2</v>
-    <v>-1.0900000000000001</v>
-    <v>-5.2630000000000003E-3</v>
+    <v>212.25</v>
+    <v>139.52000000000001</v>
+    <v>1.1599999999999999</v>
+    <v>2.96</v>
+    <v>1.4293E-2</v>
+    <v>0.22</v>
+    <v>1.047E-3</v>
     <v>USD</v>
     <v>Amazon.com, Inc. provides a range of products and services to customers. The products offered through its stores include merchandise and content it has purchased for resale and products offered by third-party sellers. The Company’s segments include North America, International and Amazon Web Services (AWS). It serves consumers through its online and physical stores and focuses on selection, price, and convenience. Customers access its offerings through its Websites, mobile apps, Alexa, devices, streaming, and physically visiting its stores. It manufactures and sells electronic devices, including Kindle, Fire tablet, Fire TV, Echo, Ring, Blink, and eero, and it develops and produces media content. It serves developers and enterprises of all sizes, including start-ups, government agencies, and academic institutions, through AWS, which offers a broad set of on-demand technology services, including compute, storage, database, analytics, and machine learning, and other services.</v>
     <v>1551000</v>
@@ -2032,25 +2032,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>410 Terry Ave N, SEATTLE, WA, 98109 US</v>
-    <v>207.55</v>
+    <v>212.25</v>
     <v>Diversified Retail</v>
     <v>Stock</v>
-    <v>45602.933400289061</v>
+    <v>45604.04164993047</v>
     <v>0</v>
-    <v>199.14</v>
-    <v>2177553420900</v>
+    <v>207.19</v>
+    <v>2208677850500</v>
     <v>AMAZON.COM, INC.</v>
     <v>AMAZON.COM, INC.</v>
-    <v>200.01</v>
-    <v>44.383499999999998</v>
-    <v>199.5</v>
+    <v>207.44</v>
+    <v>45.017899999999997</v>
     <v>207.09</v>
-    <v>206</v>
+    <v>210.05</v>
+    <v>210.27</v>
     <v>10515010000</v>
     <v>AMZN</v>
     <v>AMAZON.COM, INC. (XNAS:AMZN)</v>
-    <v>72292167</v>
-    <v>34670685</v>
+    <v>52878383</v>
+    <v>36614210</v>
     <v>1996</v>
   </rv>
   <rv s="2">
@@ -2215,9 +2215,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2977,14 +2977,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>207.09</v>
+        <v>210.05</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="15">
         <f ca="1">A5/F10</f>
-        <v>3.4163059631314714</v>
+        <v>3.4651362574521491</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>26</v>
@@ -3024,14 +3024,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="19" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>3.8045000000000002E-2</v>
+        <v>1.4293E-2</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="15">
         <f ca="1">A5/F15</f>
-        <v>39.617091256253978</v>
+        <v>40.183350322932775</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>25</v>
@@ -3072,14 +3072,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="24" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>2177553420900</v>
+        <v>2208677850500</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="25">
         <f ca="1">F18/A5</f>
-        <v>2.9001355095986017E-2</v>
+        <v>2.859267139646629E-2</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>24</v>
@@ -3121,7 +3121,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="27" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="B6" s="28" t="s">
         <v>18</v>
@@ -3154,7 +3154,7 @@
       </c>
       <c r="K6" s="35">
         <f ca="1">K5/A3-1</f>
-        <v>-0.24553544702990959</v>
+        <v>-0.25616727315126864</v>
       </c>
       <c r="L6" s="36" t="s">
         <v>13</v>

--- a/Software/AMZN.xlsx
+++ b/Software/AMZN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B5EF08-F8DA-AA41-9CE9-FB4F4F6B59DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E4F00C-7831-A848-B8BE-8698A1F2FF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -2018,13 +2018,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>212.25</v>
-    <v>139.52000000000001</v>
-    <v>1.1599999999999999</v>
-    <v>2.96</v>
-    <v>1.4293E-2</v>
-    <v>0.22</v>
-    <v>1.047E-3</v>
+    <v>215.9</v>
+    <v>141.5</v>
+    <v>1.1548</v>
+    <v>2.91</v>
+    <v>1.4427000000000001E-2</v>
+    <v>0.49</v>
+    <v>2.395E-3</v>
     <v>USD</v>
     <v>Amazon.com, Inc. provides a range of products and services to customers. The products offered through its stores include merchandise and content it has purchased for resale and products offered by third-party sellers. The Company’s segments include North America, International and Amazon Web Services (AWS). It serves consumers through its online and physical stores and focuses on selection, price, and convenience. Customers access its offerings through its Websites, mobile apps, Alexa, devices, streaming, and physically visiting its stores. It manufactures and sells electronic devices, including Kindle, Fire tablet, Fire TV, Echo, Ring, Blink, and eero, and it develops and produces media content. It serves developers and enterprises of all sizes, including start-ups, government agencies, and academic institutions, through AWS, which offers a broad set of on-demand technology services, including compute, storage, database, analytics, and machine learning, and other services.</v>
     <v>1551000</v>
@@ -2032,25 +2032,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>410 Terry Ave N, SEATTLE, WA, 98109 US</v>
-    <v>212.25</v>
+    <v>205.3</v>
     <v>Diversified Retail</v>
     <v>Stock</v>
-    <v>45604.04164993047</v>
+    <v>45616.041608749998</v>
     <v>0</v>
-    <v>207.19</v>
-    <v>2208677850500</v>
+    <v>198.78</v>
+    <v>2151476196100</v>
     <v>AMAZON.COM, INC.</v>
     <v>AMAZON.COM, INC.</v>
-    <v>207.44</v>
-    <v>45.017899999999997</v>
-    <v>207.09</v>
-    <v>210.05</v>
-    <v>210.27</v>
+    <v>199.33</v>
+    <v>43.937899999999999</v>
+    <v>201.7</v>
+    <v>204.61</v>
+    <v>205.1</v>
     <v>10515010000</v>
     <v>AMZN</v>
     <v>AMAZON.COM, INC. (XNAS:AMZN)</v>
-    <v>52878383</v>
-    <v>36614210</v>
+    <v>31197867</v>
+    <v>41925261</v>
     <v>1996</v>
   </rv>
   <rv s="2">
@@ -2977,14 +2977,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>210.05</v>
+        <v>204.61</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="15">
         <f ca="1">A5/F10</f>
-        <v>3.4651362574521491</v>
+        <v>3.3753940949168495</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>26</v>
@@ -3024,14 +3024,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="19" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>1.4293E-2</v>
+        <v>1.4427000000000001E-2</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="15">
         <f ca="1">A5/F15</f>
-        <v>40.183350322932775</v>
+        <v>39.142657984171748</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>25</v>
@@ -3072,14 +3072,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="24" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>2208677850500</v>
+        <v>2151476196100</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="25">
         <f ca="1">F18/A5</f>
-        <v>2.859267139646629E-2</v>
+        <v>2.935286949234028E-2</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>24</v>
@@ -3121,7 +3121,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="27" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>1.1599999999999999</v>
+        <v>1.1548</v>
       </c>
       <c r="B6" s="28" t="s">
         <v>18</v>
@@ -3154,7 +3154,7 @@
       </c>
       <c r="K6" s="35">
         <f ca="1">K5/A3-1</f>
-        <v>-0.25616727315126864</v>
+        <v>-0.23639086909449192</v>
       </c>
       <c r="L6" s="36" t="s">
         <v>13</v>
